--- a/mi-aggr-housing-demographics.xlsx
+++ b/mi-aggr-housing-demographics.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dougvanslembrouck/Documents/GitHub/mi-housing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A5B545A-8C49-4841-BEA4-A9DD6762269D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315EF50E-46DE-3A4F-B7CF-384B0EAAFD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37840" yWindow="380" windowWidth="36620" windowHeight="20300" xr2:uid="{E8147F6C-0112-6047-9400-38CABE961353}"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{E8147F6C-0112-6047-9400-38CABE961353}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Year</t>
   </si>
@@ -106,16 +108,263 @@
   <si>
     <t>MI Household Employment</t>
   </si>
+  <si>
+    <t>Total Households</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Currently not occupied and are for rent or for sale.</t>
+  </si>
+  <si>
+    <t>MI Median Home Value</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Housing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The median home price in Michigan is around $207,800, and the median monthly rent for a two-bedroom apartment is $757. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The cost of living index score for groceries in Michigan is 93.4. (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7% lower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> than the national average)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Healthcare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The average employee contribution for single coverage healthcare at private companies in Michigan is $1,385.
+($30 less than the national average. )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Utilities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The average monthly utility bill in Michigan is $94.52, which is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> than the US average. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sales tax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Michigan has a base sales tax rate of 6%, with no county or local sales taxes added on. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inflation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                             The dollar had an average inflation rate of 2.44% per year between 2000 and 2022, producing a cumulative </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>price increase of 69.95%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This means that prices in 2022 are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.70 times as high</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as average prices since 2000, according to the Bureau of Labor Statistics consumer price index. 
+In comparison, the inflation rate in 2000 was 3.36%.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,13 +372,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,10 +442,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,13 +460,58 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -178,6 +525,5719 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0E2841"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Unemployment</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0E2841"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>5% - On par w/ US</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0E2841"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8356010937963303E-2"/>
+          <c:y val="0.11159964064894574"/>
+          <c:w val="0.88863143676078149"/>
+          <c:h val="0.84786732195388326"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>US Unemployment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$28:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0%">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F562-B944-80FD-31E63F5B5E99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MI Unemployment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$29:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0%">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F562-B944-80FD-31E63F5B5E99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="256101856"/>
+        <c:axId val="256103584"/>
+        <c:axId val="256127872"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="256101856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256103584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="256103584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256101856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="256127872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="256103584"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>MI Household Employment</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="2400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>88% of Households</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8216413669940744E-2"/>
+          <c:y val="2.5428331875182269E-2"/>
+          <c:w val="0.87983781151067453"/>
+          <c:h val="0.9339477772677518"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MI Household Employment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$32:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$33:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.9138755980861244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90521327014218012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88863109048723898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87074829931972786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85587583148558755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84565217391304348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84449244060475159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83829787234042552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84143763213530653</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.908675799086758</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8813186813186813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-468C-5D43-B313-0A3A750FE32D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="256274896"/>
+        <c:axId val="256276624"/>
+        <c:axId val="28970543"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="256274896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256276624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="256276624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256274896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="28970543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="256276624"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Vacant &amp; Available Homes</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1.9%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>US Vacant &amp; Available </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$39:$L$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$40:$L$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0%">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0%">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9A8-C949-BC8C-9831BC7B7FCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MI Vacant &amp; Available </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$39:$L$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$41:$L$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0%">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C9A8-C949-BC8C-9831BC7B7FCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="510304112"/>
+        <c:axId val="510342528"/>
+        <c:axId val="1225713264"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="510304112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510342528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="510342528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510304112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1225713264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="510342528"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.7832660623304433E-2"/>
+          <c:y val="0.87499962974847578"/>
+          <c:w val="0.39072106795474093"/>
+          <c:h val="8.4248019154345516E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Median Home Value</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="2400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>US &amp; MI</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>US Home Value Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$44:$L$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$45:$L$45</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>181400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>176700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>184700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>204900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>217500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>229800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>244900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>281900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC12-4742-B4E3-C1F9710F4F35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MI Home Value Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$44:$L$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$46:$L$46</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>128600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>146200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>154900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>162600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>172100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>201100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC12-4742-B4E3-C1F9710F4F35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="935390096"/>
+        <c:axId val="935391808"/>
+        <c:axId val="1288739184"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="935390096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935391808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="935391808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935390096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1288739184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="935391808"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.3012651508449083E-2"/>
+          <c:y val="0.89694320341618738"/>
+          <c:w val="0.50453631779173669"/>
+          <c:h val="5.2900056771900378E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0E2841"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Homeowner Rate Over Time</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0E2841"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>74% (10% Higher than US)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>US Homeowner Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9891-7E49-94C2-57FC085EBE90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MI Homeowner Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9891-7E49-94C2-57FC085EBE90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="510541696"/>
+        <c:axId val="510543408"/>
+        <c:axId val="510605200"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="510541696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510543408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="510543408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510541696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="510605200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="510543408"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0332636991804602E-2"/>
+          <c:y val="0.91991176354212001"/>
+          <c:w val="0.45221436606138521"/>
+          <c:h val="4.2399794246824676E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6857CE6B-7F97-E942-BC56-9C81E6613712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5FF2EE3-DA03-2541-A14C-F8E7F78013A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A4574F-94F4-8F49-A0D2-DDFF717EEF78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5AA25D-F350-B246-A012-18127751FB93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4ACA0EC-00EC-E04A-880B-A9CB964399FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>568581</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1550C8C-676C-D36F-2F86-91C2095D2E43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect b="21412"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12306300" y="6781801"/>
+          <a:ext cx="6131181" cy="4013199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,8 +6559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8114C374-66F5-E449-8A90-6CBE5696DA62}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1233,4 +7293,1826 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD35027-6688-2A43-A9DA-45B196AF2C1C}">
+  <dimension ref="A1:N47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C1" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D1" s="10">
+        <v>2014</v>
+      </c>
+      <c r="E1" s="10">
+        <v>2015</v>
+      </c>
+      <c r="F1" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G1" s="10">
+        <v>2017</v>
+      </c>
+      <c r="H1" s="10">
+        <v>2018</v>
+      </c>
+      <c r="I1" s="10">
+        <v>2019</v>
+      </c>
+      <c r="J1" s="10">
+        <v>2020</v>
+      </c>
+      <c r="K1" s="10">
+        <v>2021</v>
+      </c>
+      <c r="L1" s="10">
+        <v>2022</v>
+      </c>
+      <c r="M1" s="10">
+        <v>2023</v>
+      </c>
+      <c r="N1" s="10">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11">
+        <v>0.248</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11">
+        <v>0.437</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
+        <v>15250</v>
+      </c>
+      <c r="C10" s="12">
+        <v>16010</v>
+      </c>
+      <c r="D10" s="12">
+        <v>20880</v>
+      </c>
+      <c r="E10" s="12">
+        <v>25270</v>
+      </c>
+      <c r="F10" s="12">
+        <v>25400</v>
+      </c>
+      <c r="G10" s="12">
+        <v>20720</v>
+      </c>
+      <c r="H10" s="12">
+        <v>21500</v>
+      </c>
+      <c r="I10" s="12">
+        <v>20070</v>
+      </c>
+      <c r="J10" s="12">
+        <v>23900</v>
+      </c>
+      <c r="K10" s="12">
+        <v>20980</v>
+      </c>
+      <c r="L10" s="12">
+        <v>19720</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13">
+        <v>13270</v>
+      </c>
+      <c r="C11" s="13">
+        <v>13110</v>
+      </c>
+      <c r="D11" s="13">
+        <v>14130</v>
+      </c>
+      <c r="E11" s="13">
+        <v>16510</v>
+      </c>
+      <c r="F11" s="13">
+        <v>17380</v>
+      </c>
+      <c r="G11" s="13">
+        <v>16850</v>
+      </c>
+      <c r="H11" s="13">
+        <v>16010</v>
+      </c>
+      <c r="I11" s="13">
+        <v>15850</v>
+      </c>
+      <c r="J11" s="13">
+        <v>17030</v>
+      </c>
+      <c r="K11" s="13">
+        <v>15220</v>
+      </c>
+      <c r="L11" s="13">
+        <v>14640</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="14">
+        <v>181400</v>
+      </c>
+      <c r="C12" s="14">
+        <v>176700</v>
+      </c>
+      <c r="D12" s="14">
+        <v>175700</v>
+      </c>
+      <c r="E12" s="14">
+        <v>178600</v>
+      </c>
+      <c r="F12" s="14">
+        <v>184700</v>
+      </c>
+      <c r="G12" s="14">
+        <v>193500</v>
+      </c>
+      <c r="H12" s="14">
+        <v>204900</v>
+      </c>
+      <c r="I12" s="14">
+        <v>217500</v>
+      </c>
+      <c r="J12" s="14">
+        <v>229800</v>
+      </c>
+      <c r="K12" s="14">
+        <v>244900</v>
+      </c>
+      <c r="L12" s="14">
+        <v>281900</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="14">
+        <v>128600</v>
+      </c>
+      <c r="C13" s="14">
+        <v>121700</v>
+      </c>
+      <c r="D13" s="14">
+        <v>120200</v>
+      </c>
+      <c r="E13" s="14">
+        <v>122400</v>
+      </c>
+      <c r="F13" s="14">
+        <v>127800</v>
+      </c>
+      <c r="G13" s="14">
+        <v>136400</v>
+      </c>
+      <c r="H13" s="14">
+        <v>146200</v>
+      </c>
+      <c r="I13" s="14">
+        <v>154900</v>
+      </c>
+      <c r="J13" s="14">
+        <v>162600</v>
+      </c>
+      <c r="K13" s="14">
+        <v>172100</v>
+      </c>
+      <c r="L13" s="14">
+        <v>201100</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="14">
+        <v>53050</v>
+      </c>
+      <c r="C14" s="14">
+        <v>53050</v>
+      </c>
+      <c r="D14" s="14">
+        <v>53480</v>
+      </c>
+      <c r="E14" s="14">
+        <v>53890</v>
+      </c>
+      <c r="F14" s="14">
+        <v>55320</v>
+      </c>
+      <c r="G14" s="14">
+        <v>57650</v>
+      </c>
+      <c r="H14" s="14">
+        <v>60290</v>
+      </c>
+      <c r="I14" s="14">
+        <v>62840</v>
+      </c>
+      <c r="J14" s="14">
+        <v>64990</v>
+      </c>
+      <c r="K14" s="14">
+        <v>69020</v>
+      </c>
+      <c r="L14" s="14">
+        <v>75150</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="14">
+        <v>48470</v>
+      </c>
+      <c r="C15" s="14">
+        <v>48410</v>
+      </c>
+      <c r="D15" s="14">
+        <v>49090</v>
+      </c>
+      <c r="E15" s="14">
+        <v>49580</v>
+      </c>
+      <c r="F15" s="14">
+        <v>50800</v>
+      </c>
+      <c r="G15" s="14">
+        <v>52670</v>
+      </c>
+      <c r="H15" s="14">
+        <v>54940</v>
+      </c>
+      <c r="I15" s="14">
+        <v>57140</v>
+      </c>
+      <c r="J15" s="14">
+        <v>59230</v>
+      </c>
+      <c r="K15" s="14">
+        <v>63200</v>
+      </c>
+      <c r="L15" s="14">
+        <v>68510</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13">
+        <v>9900000</v>
+      </c>
+      <c r="C16" s="13">
+        <v>9890000</v>
+      </c>
+      <c r="D16" s="13">
+        <v>9890000</v>
+      </c>
+      <c r="E16" s="13">
+        <v>9900000</v>
+      </c>
+      <c r="F16" s="13">
+        <v>9910000</v>
+      </c>
+      <c r="G16" s="13">
+        <v>9930000</v>
+      </c>
+      <c r="H16" s="13">
+        <v>9960000</v>
+      </c>
+      <c r="I16" s="13">
+        <v>9970000</v>
+      </c>
+      <c r="J16" s="13">
+        <v>9970000</v>
+      </c>
+      <c r="K16" s="13">
+        <v>10060000</v>
+      </c>
+      <c r="L16" s="13">
+        <v>10060000</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D17" s="15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E17" s="15">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F17" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G17" s="15">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="J17" s="15">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K17" s="15">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L17" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D18" s="15">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="F18" s="15">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G18" s="15">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H18" s="15">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I18" s="15">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J18" s="15">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K18" s="15">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L18" s="15">
+        <v>1.9E-2</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="13">
+        <v>4180000</v>
+      </c>
+      <c r="C19" s="13">
+        <v>4220000</v>
+      </c>
+      <c r="D19" s="13">
+        <v>4310000</v>
+      </c>
+      <c r="E19" s="13">
+        <v>4410000</v>
+      </c>
+      <c r="F19" s="13">
+        <v>4510000</v>
+      </c>
+      <c r="G19" s="13">
+        <v>4600000</v>
+      </c>
+      <c r="H19" s="13">
+        <v>4630000</v>
+      </c>
+      <c r="I19" s="13">
+        <v>4700000</v>
+      </c>
+      <c r="J19" s="13">
+        <v>4730000</v>
+      </c>
+      <c r="K19" s="13">
+        <v>4380000</v>
+      </c>
+      <c r="L19" s="13">
+        <v>4550000</v>
+      </c>
+      <c r="M19" s="13">
+        <v>4670000</v>
+      </c>
+      <c r="N19" s="13">
+        <v>4830000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13">
+        <v>3820000</v>
+      </c>
+      <c r="C20" s="13">
+        <v>3820000</v>
+      </c>
+      <c r="D20" s="13">
+        <v>3830000</v>
+      </c>
+      <c r="E20" s="13">
+        <v>3840000</v>
+      </c>
+      <c r="F20" s="13">
+        <v>3860000</v>
+      </c>
+      <c r="G20" s="13">
+        <v>3890000</v>
+      </c>
+      <c r="H20" s="13">
+        <v>3910000</v>
+      </c>
+      <c r="I20" s="13">
+        <v>3940000</v>
+      </c>
+      <c r="J20" s="13">
+        <v>3980000</v>
+      </c>
+      <c r="K20" s="13">
+        <v>3980000</v>
+      </c>
+      <c r="L20" s="13">
+        <v>4010000</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C21" s="15">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D21" s="15">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E21" s="15">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F21" s="15">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="H21" s="15">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I21" s="15">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J21" s="15">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K21" s="15">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="L21" s="15">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C22" s="15">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D22" s="15">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E22" s="15">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F22" s="15">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G22" s="15">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H22" s="15">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I22" s="15">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J22" s="15">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="K22" s="15">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15">
+        <f>B20/B19</f>
+        <v>0.9138755980861244</v>
+      </c>
+      <c r="C23" s="15">
+        <f>C20/C19</f>
+        <v>0.90521327014218012</v>
+      </c>
+      <c r="D23" s="15">
+        <f>D20/D19</f>
+        <v>0.88863109048723898</v>
+      </c>
+      <c r="E23" s="15">
+        <f>E20/E19</f>
+        <v>0.87074829931972786</v>
+      </c>
+      <c r="F23" s="15">
+        <f>F20/F19</f>
+        <v>0.85587583148558755</v>
+      </c>
+      <c r="G23" s="15">
+        <f>G20/G19</f>
+        <v>0.84565217391304348</v>
+      </c>
+      <c r="H23" s="15">
+        <f>H20/H19</f>
+        <v>0.84449244060475159</v>
+      </c>
+      <c r="I23" s="15">
+        <f>I20/I19</f>
+        <v>0.83829787234042552</v>
+      </c>
+      <c r="J23" s="15">
+        <f>J20/J19</f>
+        <v>0.84143763213530653</v>
+      </c>
+      <c r="K23" s="15">
+        <f>K20/K19</f>
+        <v>0.908675799086758</v>
+      </c>
+      <c r="L23" s="15">
+        <f>L20/L19</f>
+        <v>0.8813186813186813</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C27" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2014</v>
+      </c>
+      <c r="E27" s="10">
+        <v>2015</v>
+      </c>
+      <c r="F27" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G27" s="10">
+        <v>2017</v>
+      </c>
+      <c r="H27" s="10">
+        <v>2018</v>
+      </c>
+      <c r="I27" s="10">
+        <v>2019</v>
+      </c>
+      <c r="J27" s="10">
+        <v>2020</v>
+      </c>
+      <c r="K27" s="10">
+        <v>2021</v>
+      </c>
+      <c r="L27" s="10">
+        <v>2022</v>
+      </c>
+      <c r="M27" s="10">
+        <v>2023</v>
+      </c>
+      <c r="N27" s="10">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="15">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C28" s="15">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D28" s="15">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E28" s="15">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F28" s="15">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="H28" s="15">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I28" s="15">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J28" s="15">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K28" s="15">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="L28" s="15">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="15">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C29" s="15">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D29" s="15">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E29" s="15">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F29" s="15">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G29" s="15">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H29" s="15">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I29" s="15">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J29" s="15">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="K29" s="15">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L29" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C32" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D32" s="10">
+        <v>2014</v>
+      </c>
+      <c r="E32" s="10">
+        <v>2015</v>
+      </c>
+      <c r="F32" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G32" s="10">
+        <v>2017</v>
+      </c>
+      <c r="H32" s="10">
+        <v>2018</v>
+      </c>
+      <c r="I32" s="10">
+        <v>2019</v>
+      </c>
+      <c r="J32" s="10">
+        <v>2020</v>
+      </c>
+      <c r="K32" s="10">
+        <v>2021</v>
+      </c>
+      <c r="L32" s="10">
+        <v>2022</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="15">
+        <v>0.9138755980861244</v>
+      </c>
+      <c r="C33" s="15">
+        <v>0.90521327014218012</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0.88863109048723898</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0.87074829931972786</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0.85587583148558755</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0.84565217391304348</v>
+      </c>
+      <c r="H33" s="15">
+        <v>0.84449244060475159</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0.83829787234042552</v>
+      </c>
+      <c r="J33" s="15">
+        <v>0.84143763213530653</v>
+      </c>
+      <c r="K33" s="15">
+        <v>0.908675799086758</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0.8813186813186813</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C36" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D36" s="10">
+        <v>2014</v>
+      </c>
+      <c r="E36" s="10">
+        <v>2015</v>
+      </c>
+      <c r="F36" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G36" s="10">
+        <v>2017</v>
+      </c>
+      <c r="H36" s="10">
+        <v>2018</v>
+      </c>
+      <c r="I36" s="10">
+        <v>2019</v>
+      </c>
+      <c r="J36" s="10">
+        <v>2020</v>
+      </c>
+      <c r="K36" s="10">
+        <v>2021</v>
+      </c>
+      <c r="L36" s="10">
+        <v>2022</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="12">
+        <v>15250</v>
+      </c>
+      <c r="C37" s="12">
+        <v>16010</v>
+      </c>
+      <c r="D37" s="12">
+        <v>20880</v>
+      </c>
+      <c r="E37" s="12">
+        <v>25270</v>
+      </c>
+      <c r="F37" s="12">
+        <v>25400</v>
+      </c>
+      <c r="G37" s="12">
+        <v>20720</v>
+      </c>
+      <c r="H37" s="12">
+        <v>21500</v>
+      </c>
+      <c r="I37" s="12">
+        <v>20070</v>
+      </c>
+      <c r="J37" s="12">
+        <v>23900</v>
+      </c>
+      <c r="K37" s="12">
+        <v>20980</v>
+      </c>
+      <c r="L37" s="12">
+        <v>19720</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C39" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2014</v>
+      </c>
+      <c r="E39" s="10">
+        <v>2015</v>
+      </c>
+      <c r="F39" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G39" s="10">
+        <v>2017</v>
+      </c>
+      <c r="H39" s="10">
+        <v>2018</v>
+      </c>
+      <c r="I39" s="10">
+        <v>2019</v>
+      </c>
+      <c r="J39" s="10">
+        <v>2020</v>
+      </c>
+      <c r="K39" s="10">
+        <v>2021</v>
+      </c>
+      <c r="L39" s="10">
+        <v>2022</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="15">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C40" s="15">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D40" s="15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E40" s="15">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F40" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G40" s="15">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H40" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="I40" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="J40" s="15">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K40" s="15">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L40" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="C41" s="15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D41" s="15">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E41" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="F41" s="15">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G41" s="15">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H41" s="15">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I41" s="15">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J41" s="15">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K41" s="15">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L41" s="15">
+        <v>1.9E-2</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C44" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D44" s="10">
+        <v>2014</v>
+      </c>
+      <c r="E44" s="10">
+        <v>2015</v>
+      </c>
+      <c r="F44" s="10">
+        <v>2016</v>
+      </c>
+      <c r="G44" s="10">
+        <v>2017</v>
+      </c>
+      <c r="H44" s="10">
+        <v>2018</v>
+      </c>
+      <c r="I44" s="10">
+        <v>2019</v>
+      </c>
+      <c r="J44" s="10">
+        <v>2020</v>
+      </c>
+      <c r="K44" s="10">
+        <v>2021</v>
+      </c>
+      <c r="L44" s="10">
+        <v>2022</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="14">
+        <v>181400</v>
+      </c>
+      <c r="C45" s="14">
+        <v>176700</v>
+      </c>
+      <c r="D45" s="14">
+        <v>175700</v>
+      </c>
+      <c r="E45" s="14">
+        <v>178600</v>
+      </c>
+      <c r="F45" s="14">
+        <v>184700</v>
+      </c>
+      <c r="G45" s="14">
+        <v>193500</v>
+      </c>
+      <c r="H45" s="14">
+        <v>204900</v>
+      </c>
+      <c r="I45" s="14">
+        <v>217500</v>
+      </c>
+      <c r="J45" s="14">
+        <v>229800</v>
+      </c>
+      <c r="K45" s="14">
+        <v>244900</v>
+      </c>
+      <c r="L45" s="14">
+        <v>281900</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="14">
+        <v>128600</v>
+      </c>
+      <c r="C46" s="14">
+        <v>121700</v>
+      </c>
+      <c r="D46" s="14">
+        <v>120200</v>
+      </c>
+      <c r="E46" s="14">
+        <v>122400</v>
+      </c>
+      <c r="F46" s="14">
+        <v>127800</v>
+      </c>
+      <c r="G46" s="14">
+        <v>136400</v>
+      </c>
+      <c r="H46" s="14">
+        <v>146200</v>
+      </c>
+      <c r="I46" s="14">
+        <v>154900</v>
+      </c>
+      <c r="J46" s="14">
+        <v>162600</v>
+      </c>
+      <c r="K46" s="14">
+        <v>172100</v>
+      </c>
+      <c r="L46" s="14">
+        <v>201100</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548402DF-04FF-354A-85AD-AC7E823CAF85}">
+  <dimension ref="B1:Z54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7:Z52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="8" customWidth="1"/>
+    <col min="3" max="8" width="10.83203125" style="8"/>
+    <col min="9" max="9" width="10.6640625" style="8" customWidth="1"/>
+    <col min="10" max="23" width="10.83203125" style="8"/>
+    <col min="24" max="24" width="8.5" style="8" customWidth="1"/>
+    <col min="25" max="25" width="2.1640625" style="8" customWidth="1"/>
+    <col min="26" max="26" width="59.5" style="8" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" ht="8" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:26" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="2:26" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="19">
+        <f>Sheet1!T12</f>
+        <v>4010000</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="19">
+        <f>Sheet1!P12</f>
+        <v>10060000</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="21">
+        <f>Sheet5!L13</f>
+        <v>201100</v>
+      </c>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+    </row>
+    <row r="5" spans="2:26" ht="26" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="7" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z7" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z8" s="22"/>
+    </row>
+    <row r="9" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z9" s="22"/>
+    </row>
+    <row r="10" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z10" s="22"/>
+    </row>
+    <row r="11" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z11" s="22"/>
+    </row>
+    <row r="12" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z12" s="22"/>
+    </row>
+    <row r="13" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z13" s="22"/>
+    </row>
+    <row r="14" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z14" s="22"/>
+    </row>
+    <row r="15" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z15" s="22"/>
+    </row>
+    <row r="16" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z16" s="22"/>
+    </row>
+    <row r="17" spans="26:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z17" s="22"/>
+    </row>
+    <row r="18" spans="26:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z18" s="22"/>
+    </row>
+    <row r="19" spans="26:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z19" s="22"/>
+    </row>
+    <row r="20" spans="26:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z20" s="22"/>
+    </row>
+    <row r="21" spans="26:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z21" s="22"/>
+    </row>
+    <row r="22" spans="26:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z22" s="22"/>
+    </row>
+    <row r="23" spans="26:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z23" s="22"/>
+    </row>
+    <row r="24" spans="26:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z24" s="22"/>
+    </row>
+    <row r="25" spans="26:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z25" s="22"/>
+    </row>
+    <row r="26" spans="26:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z26" s="22"/>
+    </row>
+    <row r="27" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z27" s="22"/>
+    </row>
+    <row r="28" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z28" s="22"/>
+    </row>
+    <row r="29" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z29" s="22"/>
+    </row>
+    <row r="30" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z30" s="22"/>
+    </row>
+    <row r="31" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z31" s="22"/>
+    </row>
+    <row r="32" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z32" s="22"/>
+    </row>
+    <row r="33" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z33" s="22"/>
+    </row>
+    <row r="34" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z34" s="22"/>
+    </row>
+    <row r="35" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z35" s="22"/>
+    </row>
+    <row r="36" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z36" s="22"/>
+    </row>
+    <row r="37" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z37" s="22"/>
+    </row>
+    <row r="38" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z38" s="22"/>
+    </row>
+    <row r="39" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z39" s="22"/>
+    </row>
+    <row r="40" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z40" s="22"/>
+    </row>
+    <row r="41" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z41" s="22"/>
+    </row>
+    <row r="42" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z42" s="22"/>
+    </row>
+    <row r="43" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z43" s="22"/>
+    </row>
+    <row r="44" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z44" s="22"/>
+    </row>
+    <row r="45" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z45" s="22"/>
+    </row>
+    <row r="46" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z46" s="22"/>
+    </row>
+    <row r="47" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z47" s="22"/>
+    </row>
+    <row r="48" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z48" s="22"/>
+    </row>
+    <row r="49" spans="10:26" x14ac:dyDescent="0.2">
+      <c r="Z49" s="22"/>
+    </row>
+    <row r="50" spans="10:26" x14ac:dyDescent="0.2">
+      <c r="Z50" s="22"/>
+    </row>
+    <row r="51" spans="10:26" x14ac:dyDescent="0.2">
+      <c r="Z51" s="22"/>
+    </row>
+    <row r="52" spans="10:26" x14ac:dyDescent="0.2">
+      <c r="Z52" s="22"/>
+    </row>
+    <row r="53" spans="10:26" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+    </row>
+    <row r="54" spans="10:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="R4:V5"/>
+    <mergeCell ref="Z7:Z52"/>
+    <mergeCell ref="D4:G5"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O5"/>
+    <mergeCell ref="J53:P54"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>